--- a/OPCodesRev02.xlsx
+++ b/OPCodesRev02.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="469" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="469" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="(A)Instruction Generator Format(A)" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="(B)Instruction Generator Format(B)" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>Format</t>
   </si>
@@ -30,7 +31,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>0000_0000001_000000   </t>
+    <t>0000_0000001_000000</t>
   </si>
   <si>
     <t>ADD</t>
@@ -42,31 +43,31 @@
     <t>SUB</t>
   </si>
   <si>
-    <t>0000_0001000_000000   </t>
+    <t>0000_0001000_000000</t>
   </si>
   <si>
     <t>AND</t>
   </si>
   <si>
-    <t>0000_0001001_000000   </t>
+    <t>0000_0001001_000000</t>
   </si>
   <si>
     <t>OR</t>
   </si>
   <si>
-    <t>0000_0001010_000000   </t>
+    <t>0000_0001010_000000</t>
   </si>
   <si>
     <t>NEG</t>
   </si>
   <si>
-    <t>0000_0001011_000000  </t>
-  </si>
-  <si>
-    <t> XOR</t>
-  </si>
-  <si>
-    <t>0000_0001100_000000   </t>
+    <t>0000_0001011_000000</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>0000_0001100_000000</t>
   </si>
   <si>
     <t>COMP</t>
@@ -209,7 +210,7 @@
     <t>No OPeration</t>
   </si>
   <si>
-    <t>b </t>
+    <t>b</t>
   </si>
   <si>
     <t>LD #</t>
@@ -221,9 +222,6 @@
     <t>The value in the immediate field is sign extended and placed in the Rdst</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>LDU #</t>
   </si>
   <si>
@@ -297,18 +295,41 @@
   </si>
   <si>
     <t>R[3]&lt;- R[1]+R[2]</t>
+  </si>
+  <si>
+    <t>Format B</t>
+  </si>
+  <si>
+    <t>NOT DYNAMIC</t>
+  </si>
+  <si>
+    <t>Immediate Value</t>
+  </si>
+  <si>
+    <t>RDST1[26:22]</t>
+  </si>
+  <si>
+    <t>RDST1[21:6]</t>
+  </si>
+  <si>
+    <t>OP[5:0]</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>R[4]&lt;- #9191</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="[HH]:MM:SS" numFmtId="165"/>
-    <numFmt formatCode="GENERAL" numFmtId="166"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -353,8 +374,14 @@
       <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +398,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFB84700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CC66"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB84700"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
@@ -408,7 +453,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -433,7 +478,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -441,7 +486,19 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -497,7 +554,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33CC66"/>
       <rgbColor rgb="FF94BD5E"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -508,7 +565,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFB84700"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -525,7 +582,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B4" activeCellId="0" pane="topLeft" sqref="B4"/>
+      <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,19 +865,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>100011</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -841,8 +898,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A26" activeCellId="0" pane="topLeft" sqref="A26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -857,50 +914,50 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="3">
       <c r="B3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>5</v>
@@ -917,7 +974,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>1</v>
@@ -935,7 +992,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0" t="str">
         <f aca="false">DEC2HEX(B5)</f>
@@ -956,7 +1013,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="0" t="str">
         <f aca="false">DEC2BIN(B5,B4)</f>
@@ -972,7 +1029,7 @@
       </c>
       <c r="E7" s="7" t="str">
         <f aca="false">SUBSTITUTE(C9,"_","")</f>
-        <v>00000000001000000   </v>
+        <v>00000000001000000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="8">
@@ -980,7 +1037,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
@@ -995,45 +1052,250 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4" t="str">
         <f aca="false">B7&amp;C7&amp;D7&amp;E7</f>
-        <v>00001000100001100000000001000000   </v>
-      </c>
-      <c r="E11" s="8"/>
+        <v>00001000100001100000000001000000</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="6" t="e">
+        <f aca="false">BIN2HEX(B11)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
+      <c r="A23" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="6" t="e">
+      <c r="B23" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="24">
+      <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>4456512</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="25">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>142999616</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B24" activeCellId="0" pane="topLeft" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.25"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.446511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.7627906976744"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8232558139535"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5023255813953"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="3">
+      <c r="B3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>9191</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <f aca="false">BIN2DEC(E7)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <f aca="false">DEC2HEX(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="str">
+        <f aca="false">DEC2HEX(C5)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <f aca="false">DEC2HEX(D5)</f>
+        <v>23E7</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f aca="false">BIN2HEX(E7)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <f aca="false">DEC2BIN(B5,B4)</f>
+        <v>00001</v>
+      </c>
+      <c r="C7" s="0" t="str">
+        <f aca="false">DEC2BIN(C5,C4)</f>
+        <v>00100</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>10001111100111</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <f aca="false">C9</f>
+        <v>100010</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="8">
+      <c r="E8" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>100010</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="10">
+      <c r="E10" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f aca="false">TRIM(B7&amp;C7&amp;D7&amp;E7)</f>
+        <v>000010010010001111100111100010</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="11" t="e">
         <f aca="false">BIN2DEC(B11)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="24">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>4456512</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>142999616</v>
+        <v>38336994</v>
       </c>
     </row>
   </sheetData>

--- a/OPCodesRev02.xlsx
+++ b/OPCodesRev02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="469" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="469" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Format</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>R[3]&lt;- R[1]+R[2]</t>
+  </si>
+  <si>
+    <t>R[4]&lt;- R[4]+R[4]</t>
   </si>
   <si>
     <t>Format B</t>
@@ -453,7 +456,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -478,11 +481,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -492,10 +495,6 @@
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
@@ -896,10 +895,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B24" activeCellId="0" pane="topLeft" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -977,15 +976,15 @@
         <v>69</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="e">
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="e">
         <f aca="false">BIN2DEC(E7)</f>
         <v>#VALUE!</v>
       </c>
@@ -996,17 +995,17 @@
       </c>
       <c r="B6" s="0" t="str">
         <f aca="false">DEC2HEX(B5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="str">
         <f aca="false">DEC2HEX(C5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">DEC2HEX(D5)</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="e">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="e">
         <f aca="false">BIN2HEX(E7)</f>
         <v>#VALUE!</v>
       </c>
@@ -1017,23 +1016,23 @@
       </c>
       <c r="B7" s="0" t="str">
         <f aca="false">DEC2BIN(B5,B4)</f>
-        <v>00001</v>
+        <v>00100</v>
       </c>
       <c r="C7" s="0" t="str">
         <f aca="false">DEC2BIN(C5,C4)</f>
-        <v>00010</v>
+        <v>00100</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">DEC2BIN(D5,D4)</f>
-        <v>00011</v>
-      </c>
-      <c r="E7" s="7" t="str">
+        <v>00100</v>
+      </c>
+      <c r="E7" s="6" t="str">
         <f aca="false">SUBSTITUTE(C9,"_","")</f>
         <v>00000000001000000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="8">
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
@@ -1045,10 +1044,10 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="10">
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
@@ -1056,15 +1055,15 @@
       </c>
       <c r="B11" s="4" t="str">
         <f aca="false">B7&amp;C7&amp;D7&amp;E7</f>
-        <v>00001000100001100000000001000000</v>
+        <v>00100001000010000000000001000000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="6" t="e">
-        <f aca="false">BIN2HEX(B11)</f>
+      <c r="B12" s="0" t="e">
+        <f aca="false">BIN2DEC(B11)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1090,6 +1089,14 @@
       </c>
       <c r="B25" s="0" t="n">
         <v>142999616</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="26">
+      <c r="A26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>554172480</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1117,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B24" activeCellId="0" pane="topLeft" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1129,10 +1136,10 @@
         <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>58</v>
@@ -1147,7 +1154,7 @@
         <v>61</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>62</v>
@@ -1161,13 +1168,13 @@
         <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="4">
@@ -1200,7 +1207,7 @@
       <c r="D5" s="5" t="n">
         <v>9191</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="0" t="n">
         <f aca="false">BIN2DEC(E7)</f>
         <v>34</v>
       </c>
@@ -1221,7 +1228,7 @@
         <f aca="false">DEC2HEX(D5)</f>
         <v>23E7</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" s="0" t="str">
         <f aca="false">BIN2HEX(E7)</f>
         <v>22</v>
       </c>
@@ -1247,22 +1254,22 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="8">
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>100010</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="10">
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
@@ -1277,7 +1284,7 @@
       <c r="A12" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="11" t="e">
+      <c r="B12" s="10" t="e">
         <f aca="false">BIN2DEC(B11)</f>
         <v>#VALUE!</v>
       </c>
@@ -1292,7 +1299,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>38336994</v>
